--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_22_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_22_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>436394.7734483957</v>
+        <v>303338.6428626359</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23545182.46746499</v>
+        <v>23545182.467465</v>
       </c>
     </row>
     <row r="9">
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>21.0228487075859</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,16 +1390,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>17.2518145443983</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3.771034163187608</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>6.939353994888851</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>12.75321767547345</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.35759726426238</v>
+        <v>19.69257167036228</v>
       </c>
     </row>
     <row r="13">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>21.0228487075859</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1648,13 +1648,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>21.02284870758591</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1730,31 +1730,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>19.69257167036231</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>19.69257167036228</v>
       </c>
     </row>
     <row r="16">
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>21.02284870758591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1864,16 +1864,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>17.2518145443983</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3.771034163187608</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>19.6925716703623</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>19.69257167036228</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>22.35759726426237</v>
+      </c>
+      <c r="X20" t="n">
         <v>21.02284870758591</v>
-      </c>
-      <c r="U20" t="n">
-        <v>22.35759726426238</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2204,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="X21" t="n">
-        <v>19.69257167036231</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>19.69257167036228</v>
       </c>
     </row>
     <row r="22">
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>34.83098140993309</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>34.83098140993309</v>
       </c>
-      <c r="F23" t="n">
-        <v>20.52640801858823</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>20.52640801858822</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>34.83098140993309</v>
       </c>
-      <c r="T24" t="n">
+      <c r="W24" t="n">
         <v>34.83098140993309</v>
       </c>
-      <c r="U24" t="n">
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>30.67912842586907</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.92269653538115</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>23.43469289314015</v>
+        <v>20.52640801858822</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>30.67912842586905</v>
       </c>
       <c r="X27" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2836,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>20.52640801858819</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="S29" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="T29" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>20.52640801858821</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2873,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>30.67912842586905</v>
       </c>
       <c r="F30" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>30.67912842586905</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="W30" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>20.52640801858821</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>20.5264080185882</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>34.83098140993309</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="V33" t="n">
-        <v>30.67912842586907</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>30.67912842586905</v>
       </c>
     </row>
     <row r="34">
@@ -3274,58 +3274,58 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>22.35759726426237</v>
+      </c>
+      <c r="U35" t="n">
+        <v>22.35759726426237</v>
+      </c>
+      <c r="V35" t="n">
         <v>21.02284870758591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>22.35759726426238</v>
-      </c>
-      <c r="G35" t="n">
-        <v>22.35759726426238</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>19.69257167036231</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3389,22 +3389,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>19.69257167036228</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3517,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="H38" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>21.02284870758591</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3544,10 +3544,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>21.0228487075859</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>19.69257167036231</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>19.69257167036228</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>21.02284870758591</v>
+        <v>21.0228487075859</v>
       </c>
       <c r="I41" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3863,31 +3863,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>22.35759726426238</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>19.69257167036228</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.69257167036231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>21.02284870758591</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>22.35759726426238</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>22.35759726426238</v>
-      </c>
-      <c r="R44" t="n">
-        <v>22.35759726426238</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>21.02284870758591</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4100,19 +4100,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>22.35759726426238</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>19.69257167036231</v>
       </c>
       <c r="V45" t="n">
         <v>22.35759726426238</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>19.69257167036231</v>
       </c>
     </row>
     <row r="46">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="C11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="D11" t="n">
-        <v>68.19067165600026</v>
+        <v>46.95547094126699</v>
       </c>
       <c r="E11" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="F11" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G11" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H11" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I11" t="n">
-        <v>50.76459635862824</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J11" t="n">
-        <v>28.18116477856523</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K11" t="n">
-        <v>5.597733198502211</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L11" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M11" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276073</v>
       </c>
       <c r="N11" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438047</v>
       </c>
       <c r="O11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="P11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="Q11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="R11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="S11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="T11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="U11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="V11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="W11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="X11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="Y11" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C12" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D12" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E12" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F12" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G12" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H12" t="n">
-        <v>59.83750899730081</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I12" t="n">
-        <v>37.2540774172378</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J12" t="n">
-        <v>14.67064583717478</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K12" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L12" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276073</v>
       </c>
       <c r="M12" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438047</v>
       </c>
       <c r="N12" t="n">
-        <v>68.19067165600026</v>
+        <v>47.16421802364313</v>
       </c>
       <c r="O12" t="n">
-        <v>89.43038905704952</v>
+        <v>69.29823931526288</v>
       </c>
       <c r="P12" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="R12" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="S12" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="T12" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="U12" t="n">
-        <v>89.43038905704952</v>
+        <v>66.84695747698646</v>
       </c>
       <c r="V12" t="n">
-        <v>89.43038905704952</v>
+        <v>44.26352589692346</v>
       </c>
       <c r="W12" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686046</v>
       </c>
       <c r="X12" t="n">
-        <v>89.43038905704952</v>
+        <v>21.68009431686046</v>
       </c>
       <c r="Y12" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="N13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="O13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="P13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="R13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="S13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="T13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="U13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="V13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="W13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="X13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.788607781140991</v>
+        <v>23.02380849587422</v>
       </c>
       <c r="C14" t="n">
-        <v>1.788607781140991</v>
+        <v>23.02380849587422</v>
       </c>
       <c r="D14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L14" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M14" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276073</v>
       </c>
       <c r="N14" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438047</v>
       </c>
       <c r="O14" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="P14" t="n">
-        <v>45.60724007593725</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.02380849587423</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="R14" t="n">
-        <v>1.788607781140991</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="S14" t="n">
-        <v>1.788607781140991</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="T14" t="n">
-        <v>1.788607781140991</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="U14" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593722</v>
       </c>
       <c r="V14" t="n">
-        <v>1.788607781140991</v>
+        <v>23.02380849587422</v>
       </c>
       <c r="W14" t="n">
-        <v>1.788607781140991</v>
+        <v>23.02380849587422</v>
       </c>
       <c r="X14" t="n">
-        <v>1.788607781140991</v>
+        <v>23.02380849587422</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.788607781140991</v>
+        <v>23.02380849587422</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C15" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D15" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E15" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F15" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G15" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H15" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I15" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J15" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K15" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L15" t="n">
-        <v>23.92262907276075</v>
+        <v>2.896175440403617</v>
       </c>
       <c r="M15" t="n">
-        <v>46.0566503643805</v>
+        <v>25.03019673202336</v>
       </c>
       <c r="N15" t="n">
-        <v>68.19067165600026</v>
+        <v>47.1642180236431</v>
       </c>
       <c r="O15" t="n">
-        <v>89.43038905704952</v>
+        <v>69.29823931526285</v>
       </c>
       <c r="P15" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="Q15" t="n">
-        <v>66.84695747698652</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="R15" t="n">
-        <v>44.2635258969235</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="S15" t="n">
-        <v>21.68009431686049</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="T15" t="n">
-        <v>1.788607781140991</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="U15" t="n">
-        <v>1.788607781140991</v>
+        <v>66.84695747698646</v>
       </c>
       <c r="V15" t="n">
-        <v>1.788607781140991</v>
+        <v>44.26352589692346</v>
       </c>
       <c r="W15" t="n">
-        <v>1.788607781140991</v>
+        <v>21.68009431686046</v>
       </c>
       <c r="X15" t="n">
-        <v>1.788607781140991</v>
+        <v>21.68009431686046</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="N16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="O16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="P16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="R16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="S16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="T16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="U16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="V16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="W16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="X16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.19067165600026</v>
+        <v>23.02380849587423</v>
       </c>
       <c r="C17" t="n">
-        <v>68.19067165600026</v>
+        <v>23.02380849587423</v>
       </c>
       <c r="D17" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E17" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F17" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G17" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H17" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I17" t="n">
-        <v>50.76459635862824</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J17" t="n">
-        <v>28.18116477856523</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K17" t="n">
-        <v>5.597733198502211</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L17" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M17" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276073</v>
       </c>
       <c r="N17" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438047</v>
       </c>
       <c r="O17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="P17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="R17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="S17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="T17" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="U17" t="n">
-        <v>68.19067165600026</v>
+        <v>45.60724007593723</v>
       </c>
       <c r="V17" t="n">
-        <v>68.19067165600026</v>
+        <v>23.02380849587423</v>
       </c>
       <c r="W17" t="n">
-        <v>68.19067165600026</v>
+        <v>23.02380849587423</v>
       </c>
       <c r="X17" t="n">
-        <v>68.19067165600026</v>
+        <v>23.02380849587423</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.19067165600026</v>
+        <v>23.02380849587423</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>46.95547094126702</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C18" t="n">
-        <v>46.95547094126702</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D18" t="n">
-        <v>46.95547094126702</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E18" t="n">
-        <v>46.95547094126702</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F18" t="n">
-        <v>46.95547094126702</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G18" t="n">
-        <v>46.95547094126702</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H18" t="n">
-        <v>24.372039361204</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I18" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J18" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K18" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L18" t="n">
-        <v>23.92262907276075</v>
+        <v>2.896175440403617</v>
       </c>
       <c r="M18" t="n">
-        <v>46.0566503643805</v>
+        <v>25.03019673202336</v>
       </c>
       <c r="N18" t="n">
-        <v>68.19067165600026</v>
+        <v>47.1642180236431</v>
       </c>
       <c r="O18" t="n">
-        <v>89.43038905704952</v>
+        <v>69.29823931526285</v>
       </c>
       <c r="P18" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="R18" t="n">
-        <v>69.53890252133003</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="S18" t="n">
-        <v>46.95547094126702</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="T18" t="n">
-        <v>46.95547094126702</v>
+        <v>69.53890252132999</v>
       </c>
       <c r="U18" t="n">
-        <v>46.95547094126702</v>
+        <v>46.95547094126699</v>
       </c>
       <c r="V18" t="n">
-        <v>46.95547094126702</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="W18" t="n">
-        <v>46.95547094126702</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="X18" t="n">
-        <v>46.95547094126702</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Y18" t="n">
-        <v>46.95547094126702</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="N19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="O19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="P19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="R19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="S19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="T19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="U19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="V19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="W19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="X19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="C20" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="D20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L20" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M20" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276073</v>
       </c>
       <c r="N20" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438047</v>
       </c>
       <c r="O20" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="P20" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="R20" t="n">
-        <v>45.60724007593725</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="S20" t="n">
-        <v>45.60724007593725</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="T20" t="n">
-        <v>24.372039361204</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="U20" t="n">
-        <v>1.788607781140991</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="V20" t="n">
-        <v>1.788607781140991</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="W20" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593723</v>
       </c>
       <c r="X20" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120399</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L21" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276073</v>
       </c>
       <c r="M21" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438047</v>
       </c>
       <c r="N21" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="O21" t="n">
-        <v>69.2982393152629</v>
+        <v>69.29823931526285</v>
       </c>
       <c r="P21" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.84695747698652</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="R21" t="n">
-        <v>44.2635258969235</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="S21" t="n">
-        <v>44.2635258969235</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="T21" t="n">
-        <v>44.2635258969235</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="U21" t="n">
-        <v>21.68009431686049</v>
+        <v>66.84695747698646</v>
       </c>
       <c r="V21" t="n">
-        <v>21.68009431686049</v>
+        <v>44.26352589692346</v>
       </c>
       <c r="W21" t="n">
-        <v>21.68009431686049</v>
+        <v>21.68009431686046</v>
       </c>
       <c r="X21" t="n">
-        <v>1.788607781140991</v>
+        <v>21.68009431686046</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="N22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="O22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="P22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="R22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="S22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="T22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="U22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="V22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="W22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="X22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>139.3239256397324</v>
+        <v>73.15209752276049</v>
       </c>
       <c r="C23" t="n">
-        <v>139.3239256397324</v>
+        <v>73.15209752276049</v>
       </c>
       <c r="D23" t="n">
-        <v>139.3239256397324</v>
+        <v>37.96928801777756</v>
       </c>
       <c r="E23" t="n">
-        <v>104.1411161347494</v>
+        <v>37.96928801777756</v>
       </c>
       <c r="F23" t="n">
-        <v>83.40737066142799</v>
+        <v>37.96928801777756</v>
       </c>
       <c r="G23" t="n">
-        <v>83.40737066142799</v>
+        <v>2.786478512794647</v>
       </c>
       <c r="H23" t="n">
-        <v>83.40737066142799</v>
+        <v>2.786478512794647</v>
       </c>
       <c r="I23" t="n">
-        <v>48.22456115644507</v>
+        <v>2.786478512794647</v>
       </c>
       <c r="J23" t="n">
-        <v>48.22456115644507</v>
+        <v>2.786478512794647</v>
       </c>
       <c r="K23" t="n">
-        <v>48.22456115644507</v>
+        <v>2.786478512794647</v>
       </c>
       <c r="L23" t="n">
-        <v>48.22456115644507</v>
+        <v>2.786478512794647</v>
       </c>
       <c r="M23" t="n">
-        <v>82.70723275227883</v>
+        <v>37.2691501086284</v>
       </c>
       <c r="N23" t="n">
-        <v>117.1899043481126</v>
+        <v>71.75182170446216</v>
       </c>
       <c r="O23" t="n">
-        <v>139.3239256397324</v>
+        <v>93.88584299608192</v>
       </c>
       <c r="P23" t="n">
-        <v>139.3239256397324</v>
+        <v>93.88584299608192</v>
       </c>
       <c r="Q23" t="n">
-        <v>139.3239256397324</v>
+        <v>93.88584299608192</v>
       </c>
       <c r="R23" t="n">
-        <v>139.3239256397324</v>
+        <v>93.88584299608192</v>
       </c>
       <c r="S23" t="n">
-        <v>139.3239256397324</v>
+        <v>93.88584299608192</v>
       </c>
       <c r="T23" t="n">
-        <v>139.3239256397324</v>
+        <v>93.88584299608192</v>
       </c>
       <c r="U23" t="n">
-        <v>139.3239256397324</v>
+        <v>93.88584299608192</v>
       </c>
       <c r="V23" t="n">
-        <v>139.3239256397324</v>
+        <v>73.15209752276049</v>
       </c>
       <c r="W23" t="n">
-        <v>139.3239256397324</v>
+        <v>73.15209752276049</v>
       </c>
       <c r="X23" t="n">
-        <v>139.3239256397324</v>
+        <v>73.15209752276049</v>
       </c>
       <c r="Y23" t="n">
-        <v>139.3239256397324</v>
+        <v>73.15209752276049</v>
       </c>
     </row>
     <row r="24">
@@ -6095,22 +6095,22 @@
         <v>104.1411161347494</v>
       </c>
       <c r="S24" t="n">
+        <v>104.1411161347494</v>
+      </c>
+      <c r="T24" t="n">
+        <v>104.1411161347494</v>
+      </c>
+      <c r="U24" t="n">
+        <v>104.1411161347494</v>
+      </c>
+      <c r="V24" t="n">
         <v>68.95830662976653</v>
       </c>
-      <c r="T24" t="n">
+      <c r="W24" t="n">
         <v>33.77549712478361</v>
       </c>
-      <c r="U24" t="n">
-        <v>2.786478512794647</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.786478512794647</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2.786478512794647</v>
-      </c>
       <c r="X24" t="n">
-        <v>2.786478512794647</v>
+        <v>33.77549712478361</v>
       </c>
       <c r="Y24" t="n">
         <v>2.786478512794647</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.786478512794647</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="C26" t="n">
-        <v>2.786478512794647</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="D26" t="n">
-        <v>2.786478512794647</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="E26" t="n">
-        <v>2.786478512794647</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="F26" t="n">
-        <v>2.786478512794647</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="G26" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="H26" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="I26" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="J26" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="K26" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="L26" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="M26" t="n">
-        <v>37.2691501086284</v>
+        <v>37.26915010862842</v>
       </c>
       <c r="N26" t="n">
-        <v>71.75182170446216</v>
+        <v>71.7518217044622</v>
       </c>
       <c r="O26" t="n">
-        <v>93.88584299608192</v>
+        <v>93.88584299608196</v>
       </c>
       <c r="P26" t="n">
-        <v>70.21443603331409</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="Q26" t="n">
-        <v>70.21443603331409</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="R26" t="n">
-        <v>70.21443603331409</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="S26" t="n">
-        <v>70.21443603331409</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="T26" t="n">
-        <v>70.21443603331409</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="U26" t="n">
-        <v>70.21443603331409</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="V26" t="n">
-        <v>70.21443603331409</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="W26" t="n">
-        <v>70.21443603331409</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="X26" t="n">
-        <v>35.03162652833117</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="Y26" t="n">
-        <v>35.03162652833117</v>
+        <v>73.15209752276053</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="C27" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="D27" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="E27" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="F27" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="G27" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="H27" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="I27" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="J27" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="K27" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="L27" t="n">
-        <v>37.2691501086284</v>
+        <v>37.26915010862842</v>
       </c>
       <c r="M27" t="n">
-        <v>50.22643270627821</v>
+        <v>70.35858244806485</v>
       </c>
       <c r="N27" t="n">
-        <v>84.70910430211197</v>
+        <v>104.8412540438986</v>
       </c>
       <c r="O27" t="n">
-        <v>119.1917758979457</v>
+        <v>139.3239256397324</v>
       </c>
       <c r="P27" t="n">
         <v>139.3239256397324</v>
@@ -6329,28 +6329,28 @@
         <v>139.3239256397324</v>
       </c>
       <c r="R27" t="n">
-        <v>139.3239256397324</v>
+        <v>104.1411161347495</v>
       </c>
       <c r="S27" t="n">
-        <v>139.3239256397324</v>
+        <v>68.95830662976653</v>
       </c>
       <c r="T27" t="n">
-        <v>139.3239256397324</v>
+        <v>33.77549712478359</v>
       </c>
       <c r="U27" t="n">
-        <v>139.3239256397324</v>
+        <v>33.77549712478359</v>
       </c>
       <c r="V27" t="n">
-        <v>139.3239256397324</v>
+        <v>33.77549712478359</v>
       </c>
       <c r="W27" t="n">
-        <v>108.3349070277434</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="X27" t="n">
-        <v>73.15209752276049</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="Y27" t="n">
-        <v>73.15209752276049</v>
+        <v>2.786478512794648</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="C28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="D28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="E28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="F28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="G28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="H28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="I28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="J28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="K28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="L28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="M28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="N28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="O28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="P28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="R28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="S28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="T28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="U28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="V28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="W28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="X28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="C29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="D29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="E29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="F29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="G29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="H29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="I29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="J29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="K29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="L29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="M29" t="n">
-        <v>37.2691501086284</v>
+        <v>37.26915010862841</v>
       </c>
       <c r="N29" t="n">
-        <v>71.75182170446216</v>
+        <v>71.75182170446217</v>
       </c>
       <c r="O29" t="n">
-        <v>93.88584299608192</v>
+        <v>93.88584299608193</v>
       </c>
       <c r="P29" t="n">
-        <v>93.88584299608192</v>
+        <v>93.88584299608193</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.88584299608192</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="R29" t="n">
-        <v>93.88584299608192</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="S29" t="n">
-        <v>58.703033491099</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="T29" t="n">
-        <v>23.52022398611608</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="U29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="V29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="W29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="X29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.15209752276049</v>
+        <v>104.1411161347495</v>
       </c>
       <c r="C30" t="n">
-        <v>37.96928801777756</v>
+        <v>104.1411161347495</v>
       </c>
       <c r="D30" t="n">
-        <v>37.96928801777756</v>
+        <v>104.1411161347495</v>
       </c>
       <c r="E30" t="n">
-        <v>37.96928801777756</v>
+        <v>73.15209752276053</v>
       </c>
       <c r="F30" t="n">
-        <v>2.786478512794647</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="G30" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="H30" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="I30" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="J30" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="K30" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="L30" t="n">
-        <v>37.2691501086284</v>
+        <v>15.74376111044448</v>
       </c>
       <c r="M30" t="n">
-        <v>71.75182170446216</v>
+        <v>50.22643270627825</v>
       </c>
       <c r="N30" t="n">
-        <v>106.2344933002959</v>
+        <v>84.70910430211202</v>
       </c>
       <c r="O30" t="n">
-        <v>119.1917758979457</v>
+        <v>119.1917758979458</v>
       </c>
       <c r="P30" t="n">
         <v>139.3239256397324</v>
       </c>
       <c r="Q30" t="n">
-        <v>108.3349070277434</v>
+        <v>139.3239256397324</v>
       </c>
       <c r="R30" t="n">
-        <v>108.3349070277434</v>
+        <v>139.3239256397324</v>
       </c>
       <c r="S30" t="n">
-        <v>108.3349070277434</v>
+        <v>139.3239256397324</v>
       </c>
       <c r="T30" t="n">
-        <v>108.3349070277434</v>
+        <v>139.3239256397324</v>
       </c>
       <c r="U30" t="n">
-        <v>108.3349070277434</v>
+        <v>139.3239256397324</v>
       </c>
       <c r="V30" t="n">
-        <v>108.3349070277434</v>
+        <v>104.1411161347495</v>
       </c>
       <c r="W30" t="n">
-        <v>73.15209752276049</v>
+        <v>104.1411161347495</v>
       </c>
       <c r="X30" t="n">
-        <v>73.15209752276049</v>
+        <v>104.1411161347495</v>
       </c>
       <c r="Y30" t="n">
-        <v>73.15209752276049</v>
+        <v>104.1411161347495</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="C31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="D31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="E31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="F31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="G31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="H31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="I31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="J31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="K31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="L31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="M31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="N31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="O31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="P31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="R31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="S31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="T31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="U31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="V31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="W31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="X31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>23.52022398611608</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="C32" t="n">
-        <v>23.52022398611608</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="D32" t="n">
-        <v>23.52022398611608</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="E32" t="n">
-        <v>23.52022398611608</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="F32" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="G32" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="H32" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="I32" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="J32" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="K32" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="L32" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="M32" t="n">
-        <v>37.2691501086284</v>
+        <v>37.26915010862841</v>
       </c>
       <c r="N32" t="n">
-        <v>71.75182170446216</v>
+        <v>71.75182170446217</v>
       </c>
       <c r="O32" t="n">
-        <v>93.88584299608192</v>
+        <v>93.88584299608193</v>
       </c>
       <c r="P32" t="n">
-        <v>93.88584299608192</v>
+        <v>93.88584299608193</v>
       </c>
       <c r="Q32" t="n">
         <v>58.703033491099</v>
       </c>
       <c r="R32" t="n">
-        <v>58.703033491099</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="S32" t="n">
-        <v>58.703033491099</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="T32" t="n">
-        <v>58.703033491099</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="U32" t="n">
-        <v>58.703033491099</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="V32" t="n">
-        <v>23.52022398611608</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="W32" t="n">
-        <v>23.52022398611608</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="X32" t="n">
-        <v>23.52022398611608</v>
+        <v>37.96928801777759</v>
       </c>
       <c r="Y32" t="n">
-        <v>23.52022398611608</v>
+        <v>37.96928801777759</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="C33" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="D33" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="E33" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="F33" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="G33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="H33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="I33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="J33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="K33" t="n">
-        <v>2.786478512794647</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="L33" t="n">
-        <v>37.2691501086284</v>
+        <v>37.26915010862842</v>
       </c>
       <c r="M33" t="n">
-        <v>71.75182170446216</v>
+        <v>50.22643270627825</v>
       </c>
       <c r="N33" t="n">
-        <v>106.2344933002959</v>
+        <v>84.70910430211202</v>
       </c>
       <c r="O33" t="n">
-        <v>119.1917758979457</v>
+        <v>119.1917758979458</v>
       </c>
       <c r="P33" t="n">
         <v>139.3239256397324</v>
       </c>
       <c r="Q33" t="n">
-        <v>104.1411161347494</v>
+        <v>139.3239256397324</v>
       </c>
       <c r="R33" t="n">
-        <v>104.1411161347494</v>
+        <v>139.3239256397324</v>
       </c>
       <c r="S33" t="n">
-        <v>104.1411161347494</v>
+        <v>139.3239256397324</v>
       </c>
       <c r="T33" t="n">
+        <v>139.3239256397324</v>
+      </c>
+      <c r="U33" t="n">
+        <v>104.1411161347495</v>
+      </c>
+      <c r="V33" t="n">
         <v>68.95830662976653</v>
       </c>
-      <c r="U33" t="n">
-        <v>68.95830662976653</v>
-      </c>
-      <c r="V33" t="n">
-        <v>37.96928801777756</v>
-      </c>
       <c r="W33" t="n">
-        <v>37.96928801777756</v>
+        <v>33.77549712478359</v>
       </c>
       <c r="X33" t="n">
-        <v>37.96928801777756</v>
+        <v>33.77549712478359</v>
       </c>
       <c r="Y33" t="n">
-        <v>37.96928801777756</v>
+        <v>2.786478512794648</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="C34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="D34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="E34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="F34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="G34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="H34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="I34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="J34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="K34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="L34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="M34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="N34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="O34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="P34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="Q34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="R34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="S34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="T34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="U34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="V34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="W34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="X34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.3239256397324</v>
+        <v>2.786478512794648</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C35" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D35" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E35" t="n">
-        <v>46.95547094126702</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F35" t="n">
-        <v>24.372039361204</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L35" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M35" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276073</v>
       </c>
       <c r="N35" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438047</v>
       </c>
       <c r="O35" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="P35" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="R35" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="S35" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600023</v>
       </c>
       <c r="T35" t="n">
-        <v>68.19067165600026</v>
+        <v>45.60724007593723</v>
       </c>
       <c r="U35" t="n">
-        <v>68.19067165600026</v>
+        <v>23.02380849587423</v>
       </c>
       <c r="V35" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="W35" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="X35" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Y35" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>44.2635258969235</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C36" t="n">
-        <v>44.2635258969235</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D36" t="n">
-        <v>21.68009431686049</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E36" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F36" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G36" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H36" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I36" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J36" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K36" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L36" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276073</v>
       </c>
       <c r="M36" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438047</v>
       </c>
       <c r="N36" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="O36" t="n">
-        <v>89.43038905704952</v>
+        <v>69.29823931526285</v>
       </c>
       <c r="P36" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="Q36" t="n">
-        <v>66.84695747698652</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="R36" t="n">
-        <v>66.84695747698652</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="S36" t="n">
-        <v>66.84695747698652</v>
+        <v>69.53890252132999</v>
       </c>
       <c r="T36" t="n">
-        <v>66.84695747698652</v>
+        <v>46.95547094126699</v>
       </c>
       <c r="U36" t="n">
-        <v>66.84695747698652</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="V36" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="W36" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="X36" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Y36" t="n">
-        <v>66.84695747698652</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="N37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="O37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="P37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="R37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="S37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="T37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="U37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="V37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="W37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="X37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.43038905704952</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="C38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="D38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="E38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="F38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="G38" t="n">
-        <v>68.19067165600026</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H38" t="n">
-        <v>45.60724007593725</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I38" t="n">
-        <v>23.02380849587423</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J38" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K38" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L38" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M38" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276073</v>
       </c>
       <c r="N38" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438047</v>
       </c>
       <c r="O38" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="P38" t="n">
-        <v>68.19067165600026</v>
+        <v>46.95547094126699</v>
       </c>
       <c r="Q38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="R38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="S38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="T38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="U38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="V38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="W38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="X38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.19067165600026</v>
+        <v>24.37203936120399</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.68009431686049</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="C39" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="D39" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="E39" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="F39" t="n">
-        <v>1.788607781140991</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="G39" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H39" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I39" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J39" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K39" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L39" t="n">
-        <v>23.92262907276075</v>
+        <v>2.896175440403617</v>
       </c>
       <c r="M39" t="n">
-        <v>46.0566503643805</v>
+        <v>25.03019673202336</v>
       </c>
       <c r="N39" t="n">
-        <v>68.19067165600026</v>
+        <v>47.1642180236431</v>
       </c>
       <c r="O39" t="n">
-        <v>89.43038905704952</v>
+        <v>69.29823931526285</v>
       </c>
       <c r="P39" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="R39" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="S39" t="n">
-        <v>66.84695747698652</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="T39" t="n">
-        <v>44.2635258969235</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="U39" t="n">
-        <v>44.2635258969235</v>
+        <v>66.84695747698646</v>
       </c>
       <c r="V39" t="n">
-        <v>44.2635258969235</v>
+        <v>44.26352589692346</v>
       </c>
       <c r="W39" t="n">
-        <v>44.2635258969235</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="X39" t="n">
-        <v>44.2635258969235</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="Y39" t="n">
-        <v>44.2635258969235</v>
+        <v>24.37203936120399</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="N40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="O40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="P40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="R40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="S40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="T40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="U40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="V40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="W40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="X40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="C41" t="n">
-        <v>68.19067165600026</v>
+        <v>45.60724007593722</v>
       </c>
       <c r="D41" t="n">
-        <v>68.19067165600026</v>
+        <v>23.02380849587422</v>
       </c>
       <c r="E41" t="n">
-        <v>68.19067165600026</v>
+        <v>23.02380849587422</v>
       </c>
       <c r="F41" t="n">
-        <v>68.19067165600026</v>
+        <v>23.02380849587422</v>
       </c>
       <c r="G41" t="n">
-        <v>45.60724007593725</v>
+        <v>23.02380849587422</v>
       </c>
       <c r="H41" t="n">
-        <v>24.372039361204</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I41" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J41" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K41" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L41" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M41" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276073</v>
       </c>
       <c r="N41" t="n">
-        <v>46.0566503643805</v>
+        <v>46.05665036438047</v>
       </c>
       <c r="O41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="P41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="R41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="S41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="T41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="U41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="V41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="W41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="X41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.19067165600026</v>
+        <v>68.19067165600022</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C42" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D42" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E42" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F42" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G42" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H42" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I42" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J42" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K42" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L42" t="n">
-        <v>23.92262907276075</v>
+        <v>23.92262907276073</v>
       </c>
       <c r="M42" t="n">
-        <v>25.03019673202339</v>
+        <v>46.05665036438047</v>
       </c>
       <c r="N42" t="n">
-        <v>47.16421802364314</v>
+        <v>67.29636776542972</v>
       </c>
       <c r="O42" t="n">
-        <v>69.2982393152629</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="P42" t="n">
-        <v>89.43038905704952</v>
+        <v>89.43038905704947</v>
       </c>
       <c r="Q42" t="n">
-        <v>66.84695747698652</v>
+        <v>66.84695747698646</v>
       </c>
       <c r="R42" t="n">
-        <v>66.84695747698652</v>
+        <v>44.26352589692346</v>
       </c>
       <c r="S42" t="n">
-        <v>66.84695747698652</v>
+        <v>44.26352589692346</v>
       </c>
       <c r="T42" t="n">
-        <v>44.2635258969235</v>
+        <v>44.26352589692346</v>
       </c>
       <c r="U42" t="n">
-        <v>44.2635258969235</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="V42" t="n">
-        <v>44.2635258969235</v>
+        <v>24.37203936120399</v>
       </c>
       <c r="W42" t="n">
-        <v>21.68009431686049</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="X42" t="n">
-        <v>21.68009431686049</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="C43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="D43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="E43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="F43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="G43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="H43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="I43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="J43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="K43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="L43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="M43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="N43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="O43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="P43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="R43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="S43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="T43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="U43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="V43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="W43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="X43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.788607781140991</v>
+        <v>1.788607781140989</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593725</v>
       </c>
       <c r="C44" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593725</v>
       </c>
       <c r="D44" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593725</v>
       </c>
       <c r="E44" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593725</v>
       </c>
       <c r="F44" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593725</v>
       </c>
       <c r="G44" t="n">
-        <v>1.788607781140991</v>
+        <v>24.372039361204</v>
       </c>
       <c r="H44" t="n">
         <v>1.788607781140991</v>
@@ -7669,31 +7669,31 @@
         <v>68.19067165600026</v>
       </c>
       <c r="Q44" t="n">
+        <v>68.19067165600026</v>
+      </c>
+      <c r="R44" t="n">
+        <v>68.19067165600026</v>
+      </c>
+      <c r="S44" t="n">
+        <v>68.19067165600026</v>
+      </c>
+      <c r="T44" t="n">
+        <v>68.19067165600026</v>
+      </c>
+      <c r="U44" t="n">
+        <v>68.19067165600026</v>
+      </c>
+      <c r="V44" t="n">
         <v>45.60724007593725</v>
       </c>
-      <c r="R44" t="n">
-        <v>23.02380849587423</v>
-      </c>
-      <c r="S44" t="n">
-        <v>23.02380849587423</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.788607781140991</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.788607781140991</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.788607781140991</v>
-      </c>
       <c r="W44" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593725</v>
       </c>
       <c r="X44" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593725</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.788607781140991</v>
+        <v>45.60724007593725</v>
       </c>
     </row>
     <row r="45">
@@ -7748,28 +7748,28 @@
         <v>89.43038905704952</v>
       </c>
       <c r="Q45" t="n">
+        <v>89.43038905704952</v>
+      </c>
+      <c r="R45" t="n">
+        <v>89.43038905704952</v>
+      </c>
+      <c r="S45" t="n">
+        <v>89.43038905704952</v>
+      </c>
+      <c r="T45" t="n">
+        <v>89.43038905704952</v>
+      </c>
+      <c r="U45" t="n">
         <v>66.84695747698652</v>
       </c>
-      <c r="R45" t="n">
-        <v>66.84695747698652</v>
-      </c>
-      <c r="S45" t="n">
-        <v>66.84695747698652</v>
-      </c>
-      <c r="T45" t="n">
-        <v>66.84695747698652</v>
-      </c>
-      <c r="U45" t="n">
-        <v>46.95547094126702</v>
-      </c>
       <c r="V45" t="n">
-        <v>24.372039361204</v>
+        <v>44.2635258969235</v>
       </c>
       <c r="W45" t="n">
-        <v>1.788607781140991</v>
+        <v>21.68009431686049</v>
       </c>
       <c r="X45" t="n">
-        <v>1.788607781140991</v>
+        <v>21.68009431686049</v>
       </c>
       <c r="Y45" t="n">
         <v>1.788607781140991</v>
@@ -22810,7 +22810,7 @@
         <v>97.38162427947184</v>
       </c>
       <c r="K5" t="n">
-        <v>83.42355640483248</v>
+        <v>83.42355640483251</v>
       </c>
       <c r="L5" t="n">
         <v>58.01940008446331</v>
@@ -22819,7 +22819,7 @@
         <v>25.53077821856496</v>
       </c>
       <c r="N5" t="n">
-        <v>20.25818964702478</v>
+        <v>20.25818964702484</v>
       </c>
       <c r="O5" t="n">
         <v>35.5625862733917</v>
@@ -22907,7 +22907,7 @@
         <v>14.78693852483815</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.40126228781628</v>
+        <v>71.40126228781629</v>
       </c>
       <c r="R6" t="n">
         <v>129.3928979528938</v>
@@ -22974,7 +22974,7 @@
         <v>67.52371566667536</v>
       </c>
       <c r="M7" t="n">
-        <v>67.17903279110968</v>
+        <v>67.17903279110969</v>
       </c>
       <c r="N7" t="n">
         <v>55.89865382137701</v>
@@ -23047,7 +23047,7 @@
         <v>87.74555168308848</v>
       </c>
       <c r="K8" t="n">
-        <v>68.98158147698734</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L8" t="n">
         <v>40.1028531396922</v>
@@ -23059,10 +23059,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>16.43335224433224</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P8" t="n">
-        <v>56.54187083839042</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q8" t="n">
         <v>101.8249850515391</v>
@@ -23208,7 +23208,7 @@
         <v>75.64987151995348</v>
       </c>
       <c r="L10" t="n">
-        <v>59.95218091677093</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M10" t="n">
         <v>59.1959110048432</v>
@@ -23263,13 +23263,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>316.7493109346414</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>349.1213147973738</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>380.8416523757511</v>
       </c>
       <c r="G11" t="n">
         <v>417.4460929747968</v>
@@ -23278,16 +23278,16 @@
         <v>332.7647594329636</v>
       </c>
       <c r="I11" t="n">
-        <v>170.0897909394224</v>
+        <v>187.3416054838207</v>
       </c>
       <c r="J11" t="n">
-        <v>45.84757946290125</v>
+        <v>68.20517672716366</v>
       </c>
       <c r="K11" t="n">
-        <v>17.33802747345368</v>
+        <v>39.69562473771612</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>3.771034163187608</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23354,16 +23354,16 @@
         <v>147.9997760169757</v>
       </c>
       <c r="H12" t="n">
-        <v>111.6026957498868</v>
+        <v>118.5420497447757</v>
       </c>
       <c r="I12" t="n">
-        <v>65.92298410674097</v>
+        <v>88.28058137100336</v>
       </c>
       <c r="J12" t="n">
-        <v>41.45460872960388</v>
+        <v>63.81220599386627</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>12.75321767547345</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>47.92283906612865</v>
+        <v>47.92283906612866</v>
       </c>
       <c r="R12" t="n">
         <v>117.9731426228288</v>
@@ -23393,19 +23393,19 @@
         <v>211.9687422345195</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1790676246747</v>
+        <v>214.8214703604124</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>218.2913236511399</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>244.3469863127492</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>201.0266888697632</v>
+        <v>203.6917144636633</v>
       </c>
     </row>
     <row r="13">
@@ -23439,25 +23439,25 @@
         <v>146.0743795564298</v>
       </c>
       <c r="J13" t="n">
-        <v>97.88804345513367</v>
+        <v>97.88804345513368</v>
       </c>
       <c r="K13" t="n">
-        <v>63.65146395379575</v>
+        <v>63.65146395379577</v>
       </c>
       <c r="L13" t="n">
-        <v>44.59835013923231</v>
+        <v>44.59835013923232</v>
       </c>
       <c r="M13" t="n">
-        <v>43.0074492158559</v>
+        <v>43.00744921585591</v>
       </c>
       <c r="N13" t="n">
-        <v>32.301816477397</v>
+        <v>32.30181647739703</v>
       </c>
       <c r="O13" t="n">
-        <v>54.86824711080415</v>
+        <v>54.86824711080416</v>
       </c>
       <c r="P13" t="n">
-        <v>70.4397740687801</v>
+        <v>70.43977406878011</v>
       </c>
       <c r="Q13" t="n">
         <v>117.2709585487749</v>
@@ -23500,7 +23500,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>316.7493109346414</v>
       </c>
       <c r="E14" t="n">
         <v>371.4789120616362</v>
@@ -23536,13 +23536,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.077095628877771</v>
+        <v>23.43469289314015</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.60527593264996</v>
+        <v>76.96287319691234</v>
       </c>
       <c r="R14" t="n">
-        <v>128.9976922155797</v>
+        <v>150.0205409231657</v>
       </c>
       <c r="S14" t="n">
         <v>195.794971835276</v>
@@ -23551,10 +23551,10 @@
         <v>216.3720512529981</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0391750936216</v>
+        <v>227.6815778293592</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>298.5221863448896</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23618,31 +23618,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.56524180186626</v>
+        <v>47.92283906612865</v>
       </c>
       <c r="R15" t="n">
-        <v>95.61554535856644</v>
+        <v>117.9731426228288</v>
       </c>
       <c r="S15" t="n">
-        <v>155.3983321340214</v>
+        <v>177.7559293982838</v>
       </c>
       <c r="T15" t="n">
-        <v>192.2761705641572</v>
+        <v>211.9687422345195</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1790676246747</v>
+        <v>214.8214703604124</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>218.2913236511399</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>244.3469863127492</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>203.6917144636633</v>
       </c>
     </row>
     <row r="16">
@@ -23737,7 +23737,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>316.7493109346414</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
@@ -23752,16 +23752,16 @@
         <v>332.7647594329636</v>
       </c>
       <c r="I17" t="n">
-        <v>170.0897909394224</v>
+        <v>187.3416054838207</v>
       </c>
       <c r="J17" t="n">
-        <v>45.84757946290125</v>
+        <v>68.20517672716363</v>
       </c>
       <c r="K17" t="n">
-        <v>17.33802747345368</v>
+        <v>39.69562473771606</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3.771034163187608</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23788,10 +23788,10 @@
         <v>216.3720512529981</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0391750936216</v>
+        <v>227.6815778293592</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>298.5221863448896</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -23828,10 +23828,10 @@
         <v>147.9997760169757</v>
       </c>
       <c r="H18" t="n">
-        <v>96.18445248051327</v>
+        <v>118.5420497447757</v>
       </c>
       <c r="I18" t="n">
-        <v>65.92298410674097</v>
+        <v>88.28058137100335</v>
       </c>
       <c r="J18" t="n">
         <v>63.81220599386626</v>
@@ -23858,25 +23858,25 @@
         <v>47.92283906612865</v>
       </c>
       <c r="R18" t="n">
-        <v>98.28057095246652</v>
+        <v>117.9731426228288</v>
       </c>
       <c r="S18" t="n">
-        <v>155.3983321340214</v>
+        <v>177.7559293982838</v>
       </c>
       <c r="T18" t="n">
-        <v>211.9687422345195</v>
+        <v>192.2761705641573</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1790676246747</v>
+        <v>214.8214703604124</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>218.2913236511399</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>194.9553171752082</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -23974,7 +23974,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>315.4145623779649</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
@@ -24016,25 +24016,25 @@
         <v>76.96287319691234</v>
       </c>
       <c r="R20" t="n">
-        <v>127.6629436589033</v>
+        <v>150.0205409231657</v>
       </c>
       <c r="S20" t="n">
         <v>195.794971835276</v>
       </c>
       <c r="T20" t="n">
-        <v>195.3492025454122</v>
+        <v>216.3720512529981</v>
       </c>
       <c r="U20" t="n">
-        <v>227.6815778293592</v>
+        <v>250.0391750936216</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>315.5388665615045</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>338.7598655871202</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.56524180186626</v>
+        <v>47.92283906612865</v>
       </c>
       <c r="R21" t="n">
-        <v>95.61554535856644</v>
+        <v>117.9731426228288</v>
       </c>
       <c r="S21" t="n">
         <v>177.7559293982838</v>
@@ -24104,19 +24104,19 @@
         <v>211.9687422345195</v>
       </c>
       <c r="U21" t="n">
-        <v>214.8214703604123</v>
+        <v>214.8214703604124</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>218.2913236511399</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>244.3469863127492</v>
       </c>
       <c r="X21" t="n">
-        <v>197.6203427691083</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>203.6917144636633</v>
       </c>
     </row>
     <row r="22">
@@ -24211,22 +24211,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>302.9411782322942</v>
       </c>
       <c r="E23" t="n">
-        <v>336.6479306517031</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>382.6728416214252</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.4460929747968</v>
+        <v>382.6151115648637</v>
       </c>
       <c r="H23" t="n">
         <v>332.7647594329636</v>
       </c>
       <c r="I23" t="n">
-        <v>152.5106240738876</v>
+        <v>187.3416054838207</v>
       </c>
       <c r="J23" t="n">
         <v>68.20517672716363</v>
@@ -24265,7 +24265,7 @@
         <v>250.0391750936216</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>300.3533755905638</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
@@ -24335,25 +24335,25 @@
         <v>117.9731426228288</v>
       </c>
       <c r="S24" t="n">
-        <v>142.9249479883507</v>
+        <v>177.7559293982838</v>
       </c>
       <c r="T24" t="n">
-        <v>177.1377608245865</v>
+        <v>211.9687422345195</v>
       </c>
       <c r="U24" t="n">
-        <v>206.4999391988057</v>
+        <v>237.1790676246747</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>205.8179395054692</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>231.8736021670785</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>192.7051577081565</v>
       </c>
     </row>
     <row r="25">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>342.1645438424522</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>302.9411782322942</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
@@ -24457,7 +24457,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.4460929747968</v>
+        <v>382.6151115648637</v>
       </c>
       <c r="H26" t="n">
         <v>332.7647594329636</v>
@@ -24484,7 +24484,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>2.908284874551935</v>
       </c>
       <c r="Q26" t="n">
         <v>76.96287319691234</v>
@@ -24508,7 +24508,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>324.951732884773</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>141.9195129877326</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -24533,7 +24533,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>123.9924577099953</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>147.9997760169757</v>
@@ -24569,13 +24569,13 @@
         <v>47.92283906612865</v>
       </c>
       <c r="R27" t="n">
-        <v>117.9731426228288</v>
+        <v>83.14216121289572</v>
       </c>
       <c r="S27" t="n">
-        <v>177.7559293982838</v>
+        <v>142.9249479883507</v>
       </c>
       <c r="T27" t="n">
-        <v>211.9687422345195</v>
+        <v>177.1377608245865</v>
       </c>
       <c r="U27" t="n">
         <v>237.1790676246747</v>
@@ -24584,10 +24584,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>236.0254551511426</v>
+        <v>236.0254551511425</v>
       </c>
       <c r="X27" t="n">
-        <v>182.4819330295375</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -24724,19 +24724,19 @@
         <v>23.43469289314015</v>
       </c>
       <c r="Q29" t="n">
-        <v>76.96287319691234</v>
+        <v>56.43646517832415</v>
       </c>
       <c r="R29" t="n">
-        <v>150.0205409231657</v>
+        <v>115.1895595132326</v>
       </c>
       <c r="S29" t="n">
-        <v>160.9639904253429</v>
+        <v>160.9639904253428</v>
       </c>
       <c r="T29" t="n">
-        <v>181.541069843065</v>
+        <v>216.3720512529981</v>
       </c>
       <c r="U29" t="n">
-        <v>229.5127670750334</v>
+        <v>250.0391750936216</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24761,19 +24761,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>152.6871701144328</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>141.1484434139306</v>
       </c>
       <c r="F30" t="n">
-        <v>123.9924577099953</v>
+        <v>123.9924577099952</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9997760169757</v>
+        <v>113.1687946070426</v>
       </c>
       <c r="H30" t="n">
         <v>118.5420497447757</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>17.2437106402596</v>
+        <v>47.92283906612865</v>
       </c>
       <c r="R30" t="n">
         <v>117.9731426228288</v>
@@ -24818,10 +24818,10 @@
         <v>237.1790676246747</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>205.8179395054692</v>
       </c>
       <c r="W30" t="n">
-        <v>231.8736021670785</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
@@ -24928,7 +24928,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>382.6728416214253</v>
+        <v>368.3682682300804</v>
       </c>
       <c r="G32" t="n">
         <v>417.4460929747968</v>
@@ -24961,10 +24961,10 @@
         <v>23.43469289314015</v>
       </c>
       <c r="Q32" t="n">
-        <v>42.13189178697925</v>
+        <v>42.13189178697924</v>
       </c>
       <c r="R32" t="n">
-        <v>150.0205409231657</v>
+        <v>129.4941329045775</v>
       </c>
       <c r="S32" t="n">
         <v>195.794971835276</v>
@@ -24976,7 +24976,7 @@
         <v>250.0391750936216</v>
       </c>
       <c r="V32" t="n">
-        <v>286.0488021992189</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
@@ -25010,7 +25010,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>113.1687946070427</v>
+        <v>147.9997760169757</v>
       </c>
       <c r="H33" t="n">
         <v>118.5420497447757</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.09185765619556</v>
+        <v>47.92283906612865</v>
       </c>
       <c r="R33" t="n">
         <v>117.9731426228288</v>
@@ -25049,22 +25049,22 @@
         <v>177.7559293982838</v>
       </c>
       <c r="T33" t="n">
-        <v>177.1377608245865</v>
+        <v>211.9687422345195</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1790676246747</v>
+        <v>202.3480862147416</v>
       </c>
       <c r="V33" t="n">
-        <v>209.9697924895332</v>
+        <v>205.8179395054692</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>231.8736021670785</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>192.7051577081565</v>
       </c>
     </row>
     <row r="34">
@@ -25162,13 +25162,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>350.4560633540502</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>380.8416523757511</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>395.0884957105344</v>
+        <v>417.4460929747968</v>
       </c>
       <c r="H35" t="n">
         <v>332.7647594329636</v>
@@ -25207,13 +25207,13 @@
         <v>195.794971835276</v>
       </c>
       <c r="T35" t="n">
-        <v>216.3720512529981</v>
+        <v>194.0144539887357</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0391750936216</v>
+        <v>227.6815778293592</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>299.8569349015661</v>
       </c>
       <c r="W35" t="n">
         <v>337.8964638257669</v>
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>154.3928971334034</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>136.8147178123162</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>152.1350001694374</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -25277,22 +25277,22 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.56524180186626</v>
+        <v>47.92283906612865</v>
       </c>
       <c r="R36" t="n">
         <v>117.9731426228288</v>
       </c>
       <c r="S36" t="n">
-        <v>177.7559293982838</v>
+        <v>158.0633577279215</v>
       </c>
       <c r="T36" t="n">
-        <v>211.9687422345195</v>
+        <v>189.6111449702572</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1790676246747</v>
+        <v>214.8214703604124</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>218.2913236511399</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -25405,16 +25405,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.4460929747968</v>
+        <v>395.0884957105344</v>
       </c>
       <c r="H38" t="n">
-        <v>310.4071621687012</v>
+        <v>332.7647594329636</v>
       </c>
       <c r="I38" t="n">
-        <v>164.9840082195583</v>
+        <v>187.3416054838207</v>
       </c>
       <c r="J38" t="n">
-        <v>47.18232801957771</v>
+        <v>68.20517672716363</v>
       </c>
       <c r="K38" t="n">
         <v>39.69562473771606</v>
@@ -25432,10 +25432,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>23.43469289314015</v>
+        <v>2.411844185554255</v>
       </c>
       <c r="Q38" t="n">
-        <v>76.96287319691234</v>
+        <v>54.60527593264997</v>
       </c>
       <c r="R38" t="n">
         <v>150.0205409231657</v>
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>154.3928971334034</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>167.8255798540036</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -25484,7 +25484,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9997760169757</v>
+        <v>125.6421787527134</v>
       </c>
       <c r="H39" t="n">
         <v>118.5420497447757</v>
@@ -25520,19 +25520,19 @@
         <v>117.9731426228288</v>
       </c>
       <c r="S39" t="n">
-        <v>155.3983321340214</v>
+        <v>177.7559293982838</v>
       </c>
       <c r="T39" t="n">
-        <v>189.6111449702572</v>
+        <v>211.9687422345195</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1790676246747</v>
+        <v>214.8214703604124</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>218.2913236511399</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>247.0120119066493</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -25630,10 +25630,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>327.8479001169164</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>315.4145623779649</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -25642,13 +25642,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>395.0884957105344</v>
+        <v>417.4460929747968</v>
       </c>
       <c r="H41" t="n">
         <v>311.7419107253777</v>
       </c>
       <c r="I41" t="n">
-        <v>164.9840082195583</v>
+        <v>187.3416054838207</v>
       </c>
       <c r="J41" t="n">
         <v>68.20517672716363</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>25.56524180186626</v>
+        <v>25.56524180186628</v>
       </c>
       <c r="R42" t="n">
-        <v>117.9731426228288</v>
+        <v>95.61554535856645</v>
       </c>
       <c r="S42" t="n">
         <v>177.7559293982838</v>
       </c>
       <c r="T42" t="n">
-        <v>189.6111449702572</v>
+        <v>211.9687422345195</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1790676246747</v>
+        <v>217.4864959543125</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25775,7 +25775,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.6917144636633</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25879,10 +25879,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.4460929747968</v>
+        <v>396.4232442672109</v>
       </c>
       <c r="H44" t="n">
-        <v>332.7647594329636</v>
+        <v>310.4071621687012</v>
       </c>
       <c r="I44" t="n">
         <v>187.3416054838207</v>
@@ -25909,22 +25909,22 @@
         <v>23.43469289314015</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.60527593264996</v>
+        <v>76.96287319691234</v>
       </c>
       <c r="R44" t="n">
-        <v>127.6629436589033</v>
+        <v>150.0205409231657</v>
       </c>
       <c r="S44" t="n">
         <v>195.794971835276</v>
       </c>
       <c r="T44" t="n">
-        <v>195.3492025454122</v>
+        <v>216.3720512529981</v>
       </c>
       <c r="U44" t="n">
         <v>250.0391750936216</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>298.5221863448896</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>25.56524180186626</v>
+        <v>47.92283906612865</v>
       </c>
       <c r="R45" t="n">
         <v>117.9731426228288</v>
@@ -26000,7 +26000,7 @@
         <v>211.9687422345195</v>
       </c>
       <c r="U45" t="n">
-        <v>217.4864959543124</v>
+        <v>214.8214703604123</v>
       </c>
       <c r="V45" t="n">
         <v>218.2913236511399</v>
@@ -26012,7 +26012,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>203.6917144636633</v>
       </c>
     </row>
     <row r="46">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>277772.1716270288</v>
+        <v>277772.1716270287</v>
       </c>
     </row>
     <row r="4">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>340143.7018767135</v>
+        <v>340143.7018767136</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>335045.371429404</v>
+        <v>335045.3714294041</v>
       </c>
     </row>
   </sheetData>
@@ -26325,7 +26325,7 @@
         <v>124820.8246501701</v>
       </c>
       <c r="F2" t="n">
-        <v>124820.8246501702</v>
+        <v>124820.8246501701</v>
       </c>
       <c r="G2" t="n">
         <v>124820.8246501701</v>
@@ -26355,7 +26355,7 @@
         <v>124820.8246501701</v>
       </c>
       <c r="P2" t="n">
-        <v>124820.8246501702</v>
+        <v>124820.8246501701</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>24186.52745747732</v>
       </c>
       <c r="E3" t="n">
-        <v>52685.89001449027</v>
+        <v>52685.89001449023</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.057433322188446e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3316.9347854009</v>
+        <v>3316.934785400904</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2463.185446005548</v>
+        <v>2463.185446005508</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414744</v>
       </c>
       <c r="F4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414744</v>
       </c>
       <c r="G4" t="n">
         <v>13.63881183414745</v>
       </c>
       <c r="H4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414744</v>
       </c>
       <c r="I4" t="n">
         <v>19.75863207735125</v>
@@ -26450,13 +26450,13 @@
         <v>19.75863207735125</v>
       </c>
       <c r="M4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414744</v>
       </c>
       <c r="N4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414744</v>
       </c>
       <c r="O4" t="n">
-        <v>13.63881183414745</v>
+        <v>13.63881183414744</v>
       </c>
       <c r="P4" t="n">
         <v>13.63881183414745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-286804.4836669237</v>
+        <v>-303450.9342192297</v>
       </c>
       <c r="C6" t="n">
-        <v>61965.85262444863</v>
+        <v>45319.40207214266</v>
       </c>
       <c r="D6" t="n">
-        <v>44174.99094491242</v>
+        <v>27897.55793553137</v>
       </c>
       <c r="E6" t="n">
-        <v>61007.51598320208</v>
+        <v>45484.06934858979</v>
       </c>
       <c r="F6" t="n">
-        <v>113693.4059976924</v>
+        <v>98169.95936307995</v>
       </c>
       <c r="G6" t="n">
-        <v>113693.4059976923</v>
+        <v>98169.95936308001</v>
       </c>
       <c r="H6" t="n">
-        <v>113693.4059976923</v>
+        <v>98169.95936308001</v>
       </c>
       <c r="I6" t="n">
-        <v>111511.3476457734</v>
+        <v>96087.86827483376</v>
       </c>
       <c r="J6" t="n">
-        <v>114828.2824311743</v>
+        <v>99404.80306023466</v>
       </c>
       <c r="K6" t="n">
-        <v>114828.2824311743</v>
+        <v>99404.80306023468</v>
       </c>
       <c r="L6" t="n">
-        <v>114828.2824311743</v>
+        <v>99404.80306023468</v>
       </c>
       <c r="M6" t="n">
-        <v>111230.2205516868</v>
+        <v>95706.77391707452</v>
       </c>
       <c r="N6" t="n">
-        <v>113693.4059976923</v>
+        <v>98169.95936308001</v>
       </c>
       <c r="O6" t="n">
-        <v>113693.4059976923</v>
+        <v>98169.95936308001</v>
       </c>
       <c r="P6" t="n">
-        <v>113693.4059976924</v>
+        <v>98169.95936308001</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>390.181886567612</v>
       </c>
       <c r="E3" t="n">
-        <v>447.4512810539674</v>
+        <v>447.4512810539673</v>
       </c>
       <c r="F3" t="n">
         <v>447.4512810539674</v>
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="F4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="G4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="H4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="I4" t="n">
         <v>34.83098140993309</v>
       </c>
       <c r="J4" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="K4" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="L4" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="M4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="P4" t="n">
         <v>22.35759726426238</v>
@@ -26968,10 +26968,10 @@
         <v>28.24163016657519</v>
       </c>
       <c r="E3" t="n">
-        <v>57.26939448635534</v>
+        <v>57.26939448635528</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.928430595662503e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.47338414567071</v>
+        <v>12.47338414567072</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>9.88421311859179</v>
+        <v>9.884213118591628</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31299,7 +31299,7 @@
         <v>255.4916263187078</v>
       </c>
       <c r="N5" t="n">
-        <v>259.6257479408162</v>
+        <v>259.6257479408161</v>
       </c>
       <c r="O5" t="n">
         <v>245.1572316610661</v>
@@ -31357,10 +31357,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7785130043343056</v>
+        <v>0.7785130043343057</v>
       </c>
       <c r="H6" t="n">
-        <v>7.518796647123428</v>
+        <v>7.518796647123427</v>
       </c>
       <c r="I6" t="n">
         <v>26.80406615800132</v>
@@ -31387,10 +31387,10 @@
         <v>148.6618385206447</v>
       </c>
       <c r="Q6" t="n">
-        <v>99.37650209712999</v>
+        <v>99.37650209712997</v>
       </c>
       <c r="R6" t="n">
-        <v>48.33609688314225</v>
+        <v>48.33609688314226</v>
       </c>
       <c r="S6" t="n">
         <v>14.46053760243764</v>
@@ -31439,13 +31439,13 @@
         <v>0.6526791508871155</v>
       </c>
       <c r="H7" t="n">
-        <v>5.802910996069087</v>
+        <v>5.802910996069086</v>
       </c>
       <c r="I7" t="n">
-        <v>19.62784210122345</v>
+        <v>19.62784210122344</v>
       </c>
       <c r="J7" t="n">
-        <v>46.14441596771907</v>
+        <v>46.14441596771906</v>
       </c>
       <c r="K7" t="n">
         <v>75.82945043943032</v>
@@ -31469,10 +31469,10 @@
         <v>54.65297871655656</v>
       </c>
       <c r="R7" t="n">
-        <v>29.34682800261521</v>
+        <v>29.3468280026152</v>
       </c>
       <c r="S7" t="n">
-        <v>11.37441756591454</v>
+        <v>11.37441756591455</v>
       </c>
       <c r="T7" t="n">
         <v>2.788720008335857</v>
@@ -31521,13 +31521,13 @@
         <v>16.06412159119821</v>
       </c>
       <c r="I8" t="n">
-        <v>60.47231027898639</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J8" t="n">
         <v>133.1304518394688</v>
       </c>
       <c r="K8" t="n">
-        <v>199.5280367978889</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L8" t="n">
         <v>247.5321731236922</v>
@@ -31542,7 +31542,7 @@
         <v>264.2864656901256</v>
       </c>
       <c r="P8" t="n">
-        <v>225.5623839830384</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q8" t="n">
         <v>169.3879565952893</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H9" t="n">
         <v>8.105476549263036</v>
@@ -31627,16 +31627,16 @@
         <v>107.1306945911678</v>
       </c>
       <c r="R9" t="n">
-        <v>52.10768666274639</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S9" t="n">
         <v>15.5888706567343</v>
       </c>
       <c r="T9" t="n">
-        <v>3.382803337317314</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H10" t="n">
         <v>6.255703033821718</v>
       </c>
       <c r="I10" t="n">
-        <v>21.1593718158305</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J10" t="n">
         <v>49.74499232518554</v>
@@ -31712,7 +31712,7 @@
         <v>12.26194551721495</v>
       </c>
       <c r="T10" t="n">
-        <v>3.006319453881599</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U10" t="n">
         <v>0.03837854621976516</v>
@@ -31761,7 +31761,7 @@
         <v>69.34820306666565</v>
       </c>
       <c r="J11" t="n">
-        <v>152.6708267953937</v>
+        <v>152.6708267953936</v>
       </c>
       <c r="K11" t="n">
         <v>228.8139935371602</v>
@@ -31776,7 +31776,7 @@
         <v>302.2415348521033</v>
       </c>
       <c r="O11" t="n">
-        <v>303.0774151987202</v>
+        <v>303.0774151987201</v>
       </c>
       <c r="P11" t="n">
         <v>258.6695619282887</v>
@@ -31788,10 +31788,10 @@
         <v>112.9938152100755</v>
       </c>
       <c r="S11" t="n">
-        <v>40.99013494278305</v>
+        <v>40.99013494278304</v>
       </c>
       <c r="T11" t="n">
-        <v>7.874243146989916</v>
+        <v>7.874243146989915</v>
       </c>
       <c r="U11" t="n">
         <v>0.1439039295851954</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9624423781160808</v>
+        <v>0.9624423781160807</v>
       </c>
       <c r="H12" t="n">
-        <v>9.295167178121098</v>
+        <v>9.295167178121096</v>
       </c>
       <c r="I12" t="n">
-        <v>33.13672222899665</v>
+        <v>33.13672222899664</v>
       </c>
       <c r="J12" t="n">
-        <v>90.9296985394671</v>
+        <v>90.92969853946708</v>
       </c>
       <c r="K12" t="n">
         <v>155.4133378732445</v>
@@ -31852,13 +31852,13 @@
         <v>195.7611186491247</v>
       </c>
       <c r="N12" t="n">
-        <v>182.594486005929</v>
+        <v>161.3556439530431</v>
       </c>
       <c r="O12" t="n">
-        <v>195.421678223282</v>
+        <v>196.3250154864846</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4487770454829</v>
+        <v>183.7842818351663</v>
       </c>
       <c r="Q12" t="n">
         <v>122.8549253188176</v>
@@ -31870,10 +31870,10 @@
         <v>17.87694504965614</v>
       </c>
       <c r="T12" t="n">
-        <v>3.879318181967886</v>
+        <v>3.879318181967885</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06331857750763692</v>
+        <v>0.06331857750763691</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.806879359277646</v>
+        <v>0.8068793592776459</v>
       </c>
       <c r="H13" t="n">
-        <v>7.17389103066853</v>
+        <v>7.173891030668529</v>
       </c>
       <c r="I13" t="n">
         <v>24.26506291354958</v>
@@ -31922,13 +31922,13 @@
         <v>57.04637070092956</v>
       </c>
       <c r="K13" t="n">
-        <v>93.74471101425739</v>
+        <v>93.74471101425738</v>
       </c>
       <c r="L13" t="n">
         <v>119.9609549238784</v>
       </c>
       <c r="M13" t="n">
-        <v>126.4820072002223</v>
+        <v>126.4820072002222</v>
       </c>
       <c r="N13" t="n">
         <v>123.4745477701875</v>
@@ -31937,19 +31937,19 @@
         <v>114.048729800444</v>
       </c>
       <c r="P13" t="n">
-        <v>97.58839087117998</v>
+        <v>97.58839087117997</v>
       </c>
       <c r="Q13" t="n">
         <v>67.56514343914907</v>
       </c>
       <c r="R13" t="n">
-        <v>36.28023009988397</v>
+        <v>36.28023009988396</v>
       </c>
       <c r="S13" t="n">
         <v>14.06170665213861</v>
       </c>
       <c r="T13" t="n">
-        <v>3.447575444186305</v>
+        <v>3.447575444186304</v>
       </c>
       <c r="U13" t="n">
         <v>0.04401160141514437</v>
@@ -32083,7 +32083,7 @@
         <v>155.4133378732445</v>
       </c>
       <c r="L15" t="n">
-        <v>191.3939405957089</v>
+        <v>170.1550985428229</v>
       </c>
       <c r="M15" t="n">
         <v>195.7611186491247</v>
@@ -32092,10 +32092,10 @@
         <v>182.594486005929</v>
       </c>
       <c r="O15" t="n">
-        <v>195.421678223282</v>
+        <v>196.3250154864846</v>
       </c>
       <c r="P15" t="n">
-        <v>163.4487770454829</v>
+        <v>183.7842818351664</v>
       </c>
       <c r="Q15" t="n">
         <v>122.8549253188176</v>
@@ -32320,7 +32320,7 @@
         <v>155.4133378732445</v>
       </c>
       <c r="L18" t="n">
-        <v>191.3939405957089</v>
+        <v>170.1550985428229</v>
       </c>
       <c r="M18" t="n">
         <v>195.7611186491247</v>
@@ -32329,10 +32329,10 @@
         <v>182.594486005929</v>
       </c>
       <c r="O18" t="n">
-        <v>195.421678223282</v>
+        <v>196.3250154864846</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4487770454829</v>
+        <v>183.7842818351664</v>
       </c>
       <c r="Q18" t="n">
         <v>122.8549253188176</v>
@@ -33034,16 +33034,16 @@
         <v>203.8673247413796</v>
       </c>
       <c r="M27" t="n">
-        <v>186.4916856249127</v>
+        <v>206.8271904145961</v>
       </c>
       <c r="N27" t="n">
-        <v>195.0678701515997</v>
+        <v>195.0678701515998</v>
       </c>
       <c r="O27" t="n">
         <v>208.7983996321553</v>
       </c>
       <c r="P27" t="n">
-        <v>183.7842818351664</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q27" t="n">
         <v>122.8549253188176</v>
@@ -33268,16 +33268,16 @@
         <v>155.4133378732445</v>
       </c>
       <c r="L30" t="n">
-        <v>203.8673247413796</v>
+        <v>182.1245075714968</v>
       </c>
       <c r="M30" t="n">
         <v>208.2345027947954</v>
       </c>
       <c r="N30" t="n">
-        <v>195.0678701515997</v>
+        <v>195.0678701515998</v>
       </c>
       <c r="O30" t="n">
-        <v>187.0555824622725</v>
+        <v>208.7983996321553</v>
       </c>
       <c r="P30" t="n">
         <v>183.7842818351664</v>
@@ -33508,13 +33508,13 @@
         <v>203.8673247413796</v>
       </c>
       <c r="M33" t="n">
-        <v>208.2345027947954</v>
+        <v>186.4916856249127</v>
       </c>
       <c r="N33" t="n">
-        <v>195.0678701515997</v>
+        <v>195.0678701515998</v>
       </c>
       <c r="O33" t="n">
-        <v>187.0555824622725</v>
+        <v>208.7983996321553</v>
       </c>
       <c r="P33" t="n">
         <v>183.7842818351664</v>
@@ -33751,10 +33751,10 @@
         <v>182.594486005929</v>
       </c>
       <c r="O36" t="n">
-        <v>195.421678223282</v>
+        <v>175.0861734335986</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4487770454829</v>
+        <v>183.7842818351664</v>
       </c>
       <c r="Q36" t="n">
         <v>122.8549253188176</v>
@@ -33979,7 +33979,7 @@
         <v>155.4133378732445</v>
       </c>
       <c r="L39" t="n">
-        <v>191.3939405957089</v>
+        <v>170.1550985428229</v>
       </c>
       <c r="M39" t="n">
         <v>195.7611186491247</v>
@@ -33988,10 +33988,10 @@
         <v>182.594486005929</v>
       </c>
       <c r="O39" t="n">
-        <v>195.421678223282</v>
+        <v>196.3250154864846</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4487770454829</v>
+        <v>183.7842818351664</v>
       </c>
       <c r="Q39" t="n">
         <v>122.8549253188176</v>
@@ -34219,16 +34219,16 @@
         <v>191.3939405957089</v>
       </c>
       <c r="M42" t="n">
-        <v>174.5222765962388</v>
+        <v>195.7611186491247</v>
       </c>
       <c r="N42" t="n">
-        <v>182.594486005929</v>
+        <v>181.6911487427265</v>
       </c>
       <c r="O42" t="n">
         <v>196.3250154864846</v>
       </c>
       <c r="P42" t="n">
-        <v>183.7842818351664</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
         <v>122.8549253188176</v>
@@ -35418,13 +35418,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N11" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O11" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="M12" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N12" t="n">
-        <v>22.35759726426238</v>
+        <v>1.118755211376421</v>
       </c>
       <c r="O12" t="n">
-        <v>21.45426000105986</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>20.33550478968343</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N14" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O14" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>22.35759726426238</v>
+        <v>1.118755211376392</v>
       </c>
       <c r="M15" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N15" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O15" t="n">
-        <v>21.45426000105986</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>20.33550478968345</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N17" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O17" t="n">
         <v>22.35759726426238</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>22.35759726426238</v>
+        <v>1.118755211376392</v>
       </c>
       <c r="M18" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N18" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O18" t="n">
-        <v>21.45426000105986</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>20.33550478968345</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,10 +36129,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N20" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O20" t="n">
         <v>22.35759726426238</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="M21" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N21" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O21" t="n">
-        <v>1.118755211376406</v>
+        <v>1.118755211376392</v>
       </c>
       <c r="P21" t="n">
         <v>20.33550478968345</v>
@@ -36603,10 +36603,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="N26" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="O26" t="n">
         <v>22.35759726426238</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="M27" t="n">
-        <v>13.08816424005031</v>
+        <v>33.42366902973377</v>
       </c>
       <c r="N27" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="O27" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="P27" t="n">
-        <v>20.33550478968345</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36843,7 +36843,7 @@
         <v>34.83098140993309</v>
       </c>
       <c r="N29" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="O29" t="n">
         <v>22.35759726426238</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>34.83098140993309</v>
+        <v>13.08816424005034</v>
       </c>
       <c r="M30" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="N30" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="O30" t="n">
-        <v>13.08816424005031</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="P30" t="n">
         <v>20.33550478968345</v>
@@ -37080,7 +37080,7 @@
         <v>34.83098140993309</v>
       </c>
       <c r="N32" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="O32" t="n">
         <v>22.35759726426238</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="M33" t="n">
-        <v>34.83098140993309</v>
+        <v>13.08816424005033</v>
       </c>
       <c r="N33" t="n">
-        <v>34.83098140993309</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="O33" t="n">
-        <v>13.08816424005031</v>
+        <v>34.8309814099331</v>
       </c>
       <c r="P33" t="n">
         <v>20.33550478968345</v>
@@ -37314,10 +37314,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N35" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O35" t="n">
         <v>22.35759726426238</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="M36" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N36" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O36" t="n">
-        <v>21.45426000105986</v>
+        <v>1.118755211376392</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>20.33550478968345</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,13 +37551,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N38" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O38" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>22.35759726426238</v>
+        <v>1.118755211376392</v>
       </c>
       <c r="M39" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N39" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O39" t="n">
-        <v>21.45426000105986</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>20.33550478968345</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N41" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="O41" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="M42" t="n">
-        <v>1.118755211376406</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="N42" t="n">
-        <v>22.35759726426238</v>
+        <v>21.45426000105985</v>
       </c>
       <c r="O42" t="n">
-        <v>22.35759726426238</v>
+        <v>22.35759726426237</v>
       </c>
       <c r="P42" t="n">
-        <v>20.33550478968345</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
